--- a/syllabus-and-improv/sequenzaLezioniBDA.xlsx
+++ b/syllabus-and-improv/sequenzaLezioniBDA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgio/switchdrive/teaching/BayesianProg/bda/syllabus-and-improv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B1F4CD-11BC-4346-B860-127ACA62DE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2DC711-3BA8-4A42-8BBD-6B1626D7EAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="97">
   <si>
     <t>lezione</t>
   </si>
@@ -362,7 +362,19 @@
     <t>data</t>
   </si>
   <si>
-    <t>think bayesian, bayes rule</t>
+    <t>think bayesian, bayes rule (esempio fake news incluso + exe 2.5 arboretum)</t>
+  </si>
+  <si>
+    <t>ripresa bayes rule ( ripresa marginal, joint; fatto risolvere esempio infected | positive; esempio goat); finito in anticipo 20 mins</t>
+  </si>
+  <si>
+    <t>beta-binomial (beta; binomial only quickly introduced)</t>
+  </si>
+  <si>
+    <t>exe</t>
+  </si>
+  <si>
+    <t>finire beta-bin; 3.9, 3.10, exe 3.11 (updating) and 3.12</t>
   </si>
 </sst>
 </file>
@@ -370,9 +382,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="d\-mmm"/>
-    <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="d\-mmm"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -516,48 +528,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -945,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B15" sqref="A4:C32"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="175" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -983,7 +995,7 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="23">
         <v>44823</v>
       </c>
       <c r="C6" t="s">
@@ -994,45 +1006,56 @@
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="23">
         <f>B6+3</f>
         <v>44826</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="23">
         <f>B6+7</f>
         <v>44830</v>
       </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="26">
+      <c r="A9" s="24">
         <v>4</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="25">
         <f>B8+3</f>
         <v>44833</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
+      <c r="C9" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="23">
         <f>B8+7</f>
         <v>44837</v>
+      </c>
+      <c r="C10" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="23">
         <f>B10+3</f>
         <v>44840</v>
       </c>
@@ -1041,27 +1064,27 @@
       <c r="A12">
         <v>7</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="23">
         <f>B10+7</f>
         <v>44844</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="26">
+      <c r="A13" s="24">
         <v>8</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="25">
         <f>B12+3</f>
         <v>44847</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>9</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="23">
         <f>B12+7</f>
         <v>44851</v>
       </c>
@@ -1070,7 +1093,7 @@
       <c r="A15">
         <v>10</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="23">
         <f>B14+3</f>
         <v>44854</v>
       </c>
@@ -1079,27 +1102,27 @@
       <c r="A16">
         <v>11</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="23">
         <f>B14+7</f>
         <v>44858</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="26">
+      <c r="A17" s="24">
         <v>12</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="25">
         <f>B16+3</f>
         <v>44861</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>13</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="23">
         <f>B16+7</f>
         <v>44865</v>
       </c>
@@ -1108,7 +1131,7 @@
       <c r="A19">
         <v>14</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="23">
         <f>B18+3</f>
         <v>44868</v>
       </c>
@@ -1117,28 +1140,28 @@
       <c r="A20">
         <v>15</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="23">
         <f>B18+7</f>
         <v>44872</v>
       </c>
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="26">
+      <c r="A21" s="24">
         <v>16</v>
       </c>
-      <c r="B21" s="27">
+      <c r="B21" s="25">
         <f>B20+3</f>
         <v>44875</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>17</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="23">
         <f>B20+7</f>
         <v>44879</v>
       </c>
@@ -1147,7 +1170,7 @@
       <c r="A23">
         <v>18</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="23">
         <f>B22+3</f>
         <v>44882</v>
       </c>
@@ -1156,27 +1179,27 @@
       <c r="A24">
         <v>19</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="23">
         <f>B22+7</f>
         <v>44886</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="26">
+      <c r="A25" s="24">
         <v>20</v>
       </c>
-      <c r="B25" s="27">
+      <c r="B25" s="25">
         <f>B24+3</f>
         <v>44889</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>21</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="23">
         <f>B24+7</f>
         <v>44893</v>
       </c>
@@ -1185,7 +1208,7 @@
       <c r="A27">
         <v>22</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="23">
         <f>B26+3</f>
         <v>44896</v>
       </c>
@@ -1195,28 +1218,28 @@
       <c r="A28">
         <v>23</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="23">
         <f>B26+7</f>
         <v>44900</v>
       </c>
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="26">
+      <c r="A29" s="24">
         <v>24</v>
       </c>
-      <c r="B29" s="27">
+      <c r="B29" s="25">
         <f>B28+3</f>
         <v>44903</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="24"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>25</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B30" s="23">
         <f>B28+7</f>
         <v>44907</v>
       </c>
@@ -1226,7 +1249,7 @@
       <c r="A31">
         <v>26</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B31" s="23">
         <f>B30+3</f>
         <v>44910</v>
       </c>
@@ -1236,7 +1259,7 @@
       <c r="A32">
         <v>27</v>
       </c>
-      <c r="B32" s="25">
+      <c r="B32" s="23">
         <f>B30+7</f>
         <v>44914</v>
       </c>
@@ -1489,32 +1512,32 @@
       <c r="C71" t="s">
         <v>4</v>
       </c>
-      <c r="D71" s="23" t="s">
+      <c r="D71" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="23"/>
-      <c r="I71" s="23"/>
-      <c r="J71" s="23"/>
-      <c r="K71" s="23"/>
-      <c r="L71" s="23"/>
-      <c r="M71" s="23"/>
-      <c r="N71" s="23" t="s">
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="27"/>
+      <c r="L71" s="27"/>
+      <c r="M71" s="27"/>
+      <c r="N71" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="O71" s="23"/>
-      <c r="P71" s="23"/>
-      <c r="Q71" s="23"/>
-      <c r="R71" s="23"/>
-      <c r="S71" s="23"/>
-      <c r="T71" s="23"/>
-      <c r="V71" s="24" t="s">
+      <c r="O71" s="27"/>
+      <c r="P71" s="27"/>
+      <c r="Q71" s="27"/>
+      <c r="R71" s="27"/>
+      <c r="S71" s="27"/>
+      <c r="T71" s="27"/>
+      <c r="V71" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="W71" s="24"/>
-      <c r="X71" s="24"/>
+      <c r="W71" s="28"/>
+      <c r="X71" s="28"/>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="13">

--- a/syllabus-and-improv/sequenzaLezioniBDA.xlsx
+++ b/syllabus-and-improv/sequenzaLezioniBDA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgio/switchdrive/teaching/BayesianProg/bda/syllabus-and-improv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2DC711-3BA8-4A42-8BBD-6B1626D7EAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AC8023-B8F6-CB4D-A5F4-E5547EE1DA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="98">
   <si>
     <t>lezione</t>
   </si>
@@ -375,6 +375,9 @@
   </si>
   <si>
     <t>finire beta-bin; 3.9, 3.10, exe 3.11 (updating) and 3.12</t>
+  </si>
+  <si>
+    <t>normal normal, exe 5.9 e 5.10</t>
   </si>
 </sst>
 </file>
@@ -958,7 +961,7 @@
   <dimension ref="A1:X122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="175" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1058,6 +1061,9 @@
       <c r="B11" s="23">
         <f>B10+3</f>
         <v>44840</v>
+      </c>
+      <c r="C11" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">

--- a/syllabus-and-improv/sequenzaLezioniBDA.xlsx
+++ b/syllabus-and-improv/sequenzaLezioniBDA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgio/switchdrive/teaching/BayesianProg/bda/syllabus-and-improv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AC8023-B8F6-CB4D-A5F4-E5547EE1DA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6804F582-FD30-CB47-851C-97B9CBB4135C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32000" windowHeight="16020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="101">
   <si>
     <t>lezione</t>
   </si>
@@ -374,10 +374,19 @@
     <t>exe</t>
   </si>
   <si>
-    <t>finire beta-bin; 3.9, 3.10, exe 3.11 (updating) and 3.12</t>
-  </si>
-  <si>
-    <t>normal normal, exe 5.9 e 5.10</t>
+    <t>ripresa beta; binomial likelihood; up to slide 54 (sensitivity to the prior)</t>
+  </si>
+  <si>
+    <t>finire beta-bin; 3.9, 3.10, normal-normal</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>normal normal; 5.9, 5.10; prior su varianza</t>
+  </si>
+  <si>
+    <t>reporting analysis; normal normal (esercizio likelihood)</t>
   </si>
 </sst>
 </file>
@@ -1074,6 +1083,9 @@
         <f>B10+7</f>
         <v>44844</v>
       </c>
+      <c r="C12" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="24">
@@ -1083,7 +1095,9 @@
         <f>B12+3</f>
         <v>44847</v>
       </c>
-      <c r="C13" s="24"/>
+      <c r="C13" s="24" t="s">
+        <v>98</v>
+      </c>
       <c r="D13" s="24"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1093,6 +1107,9 @@
       <c r="B14" s="23">
         <f>B12+7</f>
         <v>44851</v>
+      </c>
+      <c r="C14" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">

--- a/syllabus-and-improv/sequenzaLezioniBDA.xlsx
+++ b/syllabus-and-improv/sequenzaLezioniBDA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgio/switchdrive/teaching/BayesianProg/bda/syllabus-and-improv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6804F582-FD30-CB47-851C-97B9CBB4135C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BFA588-9175-7341-BA2E-5445973291E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="32000" windowHeight="16020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="102">
   <si>
     <t>lezione</t>
   </si>
@@ -383,10 +383,13 @@
     <t>MF</t>
   </si>
   <si>
-    <t>normal normal; 5.9, 5.10; prior su varianza</t>
-  </si>
-  <si>
     <t>reporting analysis; normal normal (esercizio likelihood)</t>
+  </si>
+  <si>
+    <t>normal normal: 5.9, 5.10 (risolti insieme) prior su varianza; MCMC island</t>
+  </si>
+  <si>
+    <t>MCMC (fare esercizio semplice)</t>
   </si>
 </sst>
 </file>
@@ -970,7 +973,7 @@
   <dimension ref="A1:X122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="175" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1084,7 +1087,7 @@
         <v>44844</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1109,7 +1112,7 @@
         <v>44851</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1119,6 +1122,9 @@
       <c r="B15" s="23">
         <f>B14+3</f>
         <v>44854</v>
+      </c>
+      <c r="C15" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">

--- a/syllabus-and-improv/sequenzaLezioniBDA.xlsx
+++ b/syllabus-and-improv/sequenzaLezioniBDA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgio/switchdrive/teaching/BayesianProg/bda/syllabus-and-improv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BFA588-9175-7341-BA2E-5445973291E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1040167-71E5-6F43-8FA0-E1D99474C89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,7 +389,7 @@
     <t>normal normal: 5.9, 5.10 (risolti insieme) prior su varianza; MCMC island</t>
   </si>
   <si>
-    <t>MCMC (fare esercizio semplice)</t>
+    <t>ripresa MCMC (esercizi di implementazione: 1) island hopping; 2) bi-dimensional gridding of the normal-normal model)</t>
   </si>
 </sst>
 </file>

--- a/syllabus-and-improv/sequenzaLezioniBDA.xlsx
+++ b/syllabus-and-improv/sequenzaLezioniBDA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgio/switchdrive/teaching/BayesianProg/bda/syllabus-and-improv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1040167-71E5-6F43-8FA0-E1D99474C89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA5FA93-278C-DE4C-82AB-04A3F2AC95CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="104">
   <si>
     <t>lezione</t>
   </si>
@@ -390,6 +390,12 @@
   </si>
   <si>
     <t>ripresa MCMC (esercizi di implementazione: 1) island hopping; 2) bi-dimensional gridding of the normal-normal model)</t>
+  </si>
+  <si>
+    <t>ripresa bi-dimensional gridding; rope e esercizio classifier; presentazione assignment da Marco</t>
+  </si>
+  <si>
+    <t>normal normal model; presentazione progetto</t>
   </si>
 </sst>
 </file>
@@ -973,7 +979,7 @@
   <dimension ref="A1:X122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="175" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1135,6 +1141,9 @@
         <f>B14+7</f>
         <v>44858</v>
       </c>
+      <c r="C16" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="24">
@@ -1154,6 +1163,9 @@
       <c r="B18" s="23">
         <f>B16+7</f>
         <v>44865</v>
+      </c>
+      <c r="C18" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">

--- a/syllabus-and-improv/sequenzaLezioniBDA.xlsx
+++ b/syllabus-and-improv/sequenzaLezioniBDA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgio/switchdrive/teaching/BayesianProg/bda/syllabus-and-improv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA5FA93-278C-DE4C-82AB-04A3F2AC95CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49779435-2B4C-6D4B-BAB1-E102FE427387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="105">
   <si>
     <t>lezione</t>
   </si>
@@ -395,7 +398,10 @@
     <t>ripresa bi-dimensional gridding; rope e esercizio classifier; presentazione assignment da Marco</t>
   </si>
   <si>
-    <t>normal normal model; presentazione progetto</t>
+    <t>normal normal model (esercizio su predictive;  student likelihood)</t>
+  </si>
+  <si>
+    <t>finire normal normal model; presentazione progetto?</t>
   </si>
 </sst>
 </file>
@@ -979,7 +985,7 @@
   <dimension ref="A1:X122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="175" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1175,6 +1181,9 @@
       <c r="B19" s="23">
         <f>B18+3</f>
         <v>44868</v>
+      </c>
+      <c r="C19" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">

--- a/syllabus-and-improv/sequenzaLezioniBDA.xlsx
+++ b/syllabus-and-improv/sequenzaLezioniBDA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgio/switchdrive/teaching/BayesianProg/bda/syllabus-and-improv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49779435-2B4C-6D4B-BAB1-E102FE427387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8C412D-413B-C24E-954B-822C21F0B737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32000" windowHeight="16020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="105">
   <si>
     <t>lezione</t>
   </si>
@@ -413,7 +413,7 @@
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -503,6 +503,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -549,7 +562,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -599,6 +612,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Neutral" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -984,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="175" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="175" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1152,15 +1169,18 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="24">
+      <c r="A17" s="29">
         <v>12</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="30">
         <f>B16+3</f>
         <v>44861</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
+      <c r="C17" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
@@ -1171,20 +1191,21 @@
         <v>44865</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="31">
         <v>14</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="32">
         <f>B18+3</f>
         <v>44868</v>
       </c>
-      <c r="C19" t="s">
-        <v>104</v>
-      </c>
+      <c r="C19" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="31"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">

--- a/syllabus-and-improv/sequenzaLezioniBDA.xlsx
+++ b/syllabus-and-improv/sequenzaLezioniBDA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgio/switchdrive/teaching/BayesianProg/bda/syllabus-and-improv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8C412D-413B-C24E-954B-822C21F0B737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E818992-C78A-C242-9F2E-8277CB5201E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="32000" windowHeight="16020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="106">
   <si>
     <t>lezione</t>
   </si>
@@ -401,7 +401,10 @@
     <t>normal normal model (esercizio su predictive;  student likelihood)</t>
   </si>
   <si>
-    <t>finire normal normal model; presentazione progetto?</t>
+    <t>normal-normal (fatto implementare predittiva normal e t; discusso esempio rimozione outlier); intro to hyp test</t>
+  </si>
+  <si>
+    <t>hyp test; presentazione progetto?</t>
   </si>
 </sst>
 </file>
@@ -606,16 +609,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Neutral" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -1002,7 +1005,7 @@
   <dimension ref="A1:X122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="175" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1169,18 +1172,18 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="29">
+      <c r="A17" s="27">
         <v>12</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="28">
         <f>B16+3</f>
         <v>44861</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
@@ -1195,17 +1198,17 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="31">
+      <c r="A19" s="29">
         <v>14</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="30">
         <f>B18+3</f>
         <v>44868</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="31"/>
+      <c r="D19" s="29"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -1214,6 +1217,9 @@
       <c r="B20" s="23">
         <f>B18+7</f>
         <v>44872</v>
+      </c>
+      <c r="C20" t="s">
+        <v>105</v>
       </c>
       <c r="O20" s="1"/>
     </row>
@@ -1583,32 +1589,32 @@
       <c r="C71" t="s">
         <v>4</v>
       </c>
-      <c r="D71" s="27" t="s">
+      <c r="D71" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="27"/>
-      <c r="H71" s="27"/>
-      <c r="I71" s="27"/>
-      <c r="J71" s="27"/>
-      <c r="K71" s="27"/>
-      <c r="L71" s="27"/>
-      <c r="M71" s="27"/>
-      <c r="N71" s="27" t="s">
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="31"/>
+      <c r="I71" s="31"/>
+      <c r="J71" s="31"/>
+      <c r="K71" s="31"/>
+      <c r="L71" s="31"/>
+      <c r="M71" s="31"/>
+      <c r="N71" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="O71" s="27"/>
-      <c r="P71" s="27"/>
-      <c r="Q71" s="27"/>
-      <c r="R71" s="27"/>
-      <c r="S71" s="27"/>
-      <c r="T71" s="27"/>
-      <c r="V71" s="28" t="s">
+      <c r="O71" s="31"/>
+      <c r="P71" s="31"/>
+      <c r="Q71" s="31"/>
+      <c r="R71" s="31"/>
+      <c r="S71" s="31"/>
+      <c r="T71" s="31"/>
+      <c r="V71" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="W71" s="28"/>
-      <c r="X71" s="28"/>
+      <c r="W71" s="32"/>
+      <c r="X71" s="32"/>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="13">
